--- a/20240909-License Control Map.xlsx
+++ b/20240909-License Control Map.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Working\License Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983A9739-1CE1-4970-AB6F-DB085D6ABE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0045830-9E16-4D08-8443-A5DDABA41F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Organize" sheetId="8" r:id="rId2"/>
     <sheet name="Data Table" sheetId="9" r:id="rId3"/>
-    <sheet name="Category" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1 (2)" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId4"/>
+    <sheet name="Category" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1 (2)" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sheet1 (2)'!$A$1:$E$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Category!$B$3:$AS$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Sheet1 (2)'!$A$1:$E$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Category!$B$3:$AS$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Organize!$A$2:$BP$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="443">
   <si>
     <t>Implement concept of License Control.</t>
   </si>
@@ -1989,6 +1990,129 @@
   <si>
     <t>Topic</t>
   </si>
+  <si>
+    <t>DOC_TEMPLATE</t>
+  </si>
+  <si>
+    <t>DOC_TEMPLATE_COLUMN</t>
+  </si>
+  <si>
+    <t>DOC_TEMPLATE_OPTION</t>
+  </si>
+  <si>
+    <t>DOC_TEMPLATE_ALERT</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>DOC_CATEGORY</t>
+  </si>
+  <si>
+    <t>CATE_ID</t>
+  </si>
+  <si>
+    <t>CATE_NAME</t>
+  </si>
+  <si>
+    <t>LIFE</t>
+  </si>
+  <si>
+    <t>LIFE_TYPE</t>
+  </si>
+  <si>
+    <t>ALERT</t>
+  </si>
+  <si>
+    <t>DOCID</t>
+  </si>
+  <si>
+    <t>COL_DOC</t>
+  </si>
+  <si>
+    <t>COL_NAME</t>
+  </si>
+  <si>
+    <t>COL_TYPE</t>
+  </si>
+  <si>
+    <t>ALT_DOC</t>
+  </si>
+  <si>
+    <t>ALT_EMP</t>
+  </si>
+  <si>
+    <t>DOCNAME</t>
+  </si>
+  <si>
+    <t>COL_ID</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>SERVER</t>
+  </si>
+  <si>
+    <t>MITSU</t>
+  </si>
+  <si>
+    <t>GPREPORT</t>
+  </si>
+  <si>
+    <t>TABLE NAME</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>OPT_ID</t>
+  </si>
+  <si>
+    <t>Record identifier</t>
+  </si>
+  <si>
+    <t>Character code</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Document service life</t>
+  </si>
+  <si>
+    <t>Unit of document service life</t>
+  </si>
+  <si>
+    <t>No. of date that system will alert to user</t>
+  </si>
+  <si>
+    <t>EXTENDED</t>
+  </si>
+  <si>
+    <t>OPT_COLUMN</t>
+  </si>
+  <si>
+    <t>OPT_VALUE</t>
+  </si>
 </sst>
 </file>
 
@@ -1997,7 +2121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2143,8 +2267,21 @@
       <name val="Bahnschrift Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2277,8 +2414,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2686,12 +2847,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3172,6 +3364,91 @@
     <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3379,97 +3656,218 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{115F5D8E-53AF-477A-B50E-BE6496C0A3D3}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Bahnschrift Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3560,6 +3958,71 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A6434B3-9359-402F-8E2A-EA1D6C6BB98D}" name="Table2" displayName="Table2" ref="A6:D14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A6:D14" xr:uid="{9A6434B3-9359-402F-8E2A-EA1D6C6BB98D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DA2237D6-208C-4D97-8C75-5103101FE679}" name="NAME" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CCD401C6-1DFA-4C72-BEBB-171D67B5A82B}" name="DESC"/>
+    <tableColumn id="3" xr3:uid="{413334DA-BF5B-41DF-BED4-6FE5D2FEB1AF}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{6C138856-F626-49AC-AF03-295F17B34BBE}" name="LEN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D78FE8E3-DE29-4FDC-9366-3060AB3040E6}" name="Table3" displayName="Table3" ref="A18:D22" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A18:D22" xr:uid="{D78FE8E3-DE29-4FDC-9366-3060AB3040E6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{68D1C58B-434C-4613-BDB9-5CC71E8F9932}" name="NAME"/>
+    <tableColumn id="2" xr3:uid="{0B9BB751-DEEE-4D72-B256-CDE93F9864CD}" name="DESC"/>
+    <tableColumn id="3" xr3:uid="{88BBC528-6C08-43BD-BCA7-EC5545346C6D}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{E380A582-3BAE-4C67-8956-62863FE2A45B}" name="LEN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E8F2FE6C-83AF-4913-8B58-68B52A1013F6}" name="Table4" displayName="Table4" ref="A26:D29" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A26:D29" xr:uid="{E8F2FE6C-83AF-4913-8B58-68B52A1013F6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3AC746F8-AE0D-443B-A07A-9B270C30ABC9}" name="NAME"/>
+    <tableColumn id="2" xr3:uid="{235735A4-049A-45AD-BEC0-496A5C1FF4ED}" name="DESC"/>
+    <tableColumn id="3" xr3:uid="{5BA167F1-928A-47A2-91EE-9E7EF1325561}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{B9FC07CF-EC85-4103-8AFD-547A2BB0C504}" name="LEN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{95EFD3DD-4AD2-4F50-9857-B5D6B97442DF}" name="Table5" displayName="Table5" ref="A33:D35" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="A33:D35" xr:uid="{95EFD3DD-4AD2-4F50-9857-B5D6B97442DF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B0AEF067-E4BC-4C24-AF97-7FA42BD2FD24}" name="NAME"/>
+    <tableColumn id="2" xr3:uid="{D9EBE94A-33CD-4601-B1DF-AB7354A7FF51}" name="DESC"/>
+    <tableColumn id="3" xr3:uid="{01BBF1ED-A15B-4A2C-8914-097484B40443}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{B0E2A025-6043-401E-8793-A45AA6AEB9A9}" name="LEN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{28CB5EA7-2E78-47C3-8792-F53BA2955BFF}" name="Table6" displayName="Table6" ref="A39:D41" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A39:D41" xr:uid="{28CB5EA7-2E78-47C3-8792-F53BA2955BFF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{50AB52F9-05CA-44EF-8548-42AB9CFF85E7}" name="NAME"/>
+    <tableColumn id="2" xr3:uid="{859B3738-E285-4D28-A8F2-F456992D8750}" name="DESC"/>
+    <tableColumn id="3" xr3:uid="{6B34D16E-BB11-4A37-86AB-ACE8A81B55C3}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{29B713A7-100B-457C-AA6F-2A633C7CC450}" name="LEN"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4502,100 +4965,100 @@
     </row>
     <row r="4" spans="2:72" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA5" s="178" t="s">
+      <c r="AA5" s="209" t="s">
         <v>291</v>
       </c>
-      <c r="AB5" s="179"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="179"/>
-      <c r="AF5" s="179"/>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="179"/>
-      <c r="AI5" s="179"/>
-      <c r="AJ5" s="179"/>
-      <c r="AK5" s="179"/>
-      <c r="AL5" s="179"/>
-      <c r="AM5" s="179"/>
-      <c r="AN5" s="179"/>
-      <c r="AO5" s="179"/>
-      <c r="AP5" s="180"/>
+      <c r="AB5" s="210"/>
+      <c r="AC5" s="210"/>
+      <c r="AD5" s="210"/>
+      <c r="AE5" s="210"/>
+      <c r="AF5" s="210"/>
+      <c r="AG5" s="210"/>
+      <c r="AH5" s="210"/>
+      <c r="AI5" s="210"/>
+      <c r="AJ5" s="210"/>
+      <c r="AK5" s="210"/>
+      <c r="AL5" s="210"/>
+      <c r="AM5" s="210"/>
+      <c r="AN5" s="210"/>
+      <c r="AO5" s="210"/>
+      <c r="AP5" s="211"/>
     </row>
     <row r="6" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="187"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="191" t="s">
+      <c r="B6" s="218"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="222" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="192"/>
-      <c r="P6" s="192"/>
-      <c r="Q6" s="192"/>
-      <c r="R6" s="192"/>
-      <c r="S6" s="192"/>
-      <c r="T6" s="192"/>
-      <c r="AA6" s="181"/>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="182"/>
-      <c r="AG6" s="182"/>
-      <c r="AH6" s="182"/>
-      <c r="AI6" s="182"/>
-      <c r="AJ6" s="182"/>
-      <c r="AK6" s="182"/>
-      <c r="AL6" s="182"/>
-      <c r="AM6" s="182"/>
-      <c r="AN6" s="182"/>
-      <c r="AO6" s="182"/>
-      <c r="AP6" s="183"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="223"/>
+      <c r="AA6" s="212"/>
+      <c r="AB6" s="213"/>
+      <c r="AC6" s="213"/>
+      <c r="AD6" s="213"/>
+      <c r="AE6" s="213"/>
+      <c r="AF6" s="213"/>
+      <c r="AG6" s="213"/>
+      <c r="AH6" s="213"/>
+      <c r="AI6" s="213"/>
+      <c r="AJ6" s="213"/>
+      <c r="AK6" s="213"/>
+      <c r="AL6" s="213"/>
+      <c r="AM6" s="213"/>
+      <c r="AN6" s="213"/>
+      <c r="AO6" s="213"/>
+      <c r="AP6" s="214"/>
     </row>
     <row r="7" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="189"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="185"/>
-      <c r="AC7" s="185"/>
-      <c r="AD7" s="185"/>
-      <c r="AE7" s="185"/>
-      <c r="AF7" s="185"/>
-      <c r="AG7" s="185"/>
-      <c r="AH7" s="185"/>
-      <c r="AI7" s="185"/>
-      <c r="AJ7" s="185"/>
-      <c r="AK7" s="185"/>
-      <c r="AL7" s="185"/>
-      <c r="AM7" s="185"/>
-      <c r="AN7" s="185"/>
-      <c r="AO7" s="185"/>
-      <c r="AP7" s="186"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="223"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="223"/>
+      <c r="O7" s="223"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="223"/>
+      <c r="R7" s="223"/>
+      <c r="S7" s="223"/>
+      <c r="T7" s="223"/>
+      <c r="AA7" s="215"/>
+      <c r="AB7" s="216"/>
+      <c r="AC7" s="216"/>
+      <c r="AD7" s="216"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="216"/>
+      <c r="AG7" s="216"/>
+      <c r="AH7" s="216"/>
+      <c r="AI7" s="216"/>
+      <c r="AJ7" s="216"/>
+      <c r="AK7" s="216"/>
+      <c r="AL7" s="216"/>
+      <c r="AM7" s="216"/>
+      <c r="AN7" s="216"/>
+      <c r="AO7" s="216"/>
+      <c r="AP7" s="217"/>
     </row>
     <row r="8" spans="2:72" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G8" s="18"/>
@@ -4763,30 +5226,30 @@
       <c r="T11" s="102"/>
       <c r="U11" s="102"/>
       <c r="V11" s="103"/>
-      <c r="X11" s="193" t="s">
+      <c r="X11" s="224" t="s">
         <v>182</v>
       </c>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="194"/>
-      <c r="AF11" s="194"/>
-      <c r="AG11" s="195"/>
-      <c r="AJ11" s="196" t="s">
+      <c r="Y11" s="225"/>
+      <c r="Z11" s="225"/>
+      <c r="AA11" s="225"/>
+      <c r="AB11" s="225"/>
+      <c r="AC11" s="225"/>
+      <c r="AD11" s="225"/>
+      <c r="AE11" s="225"/>
+      <c r="AF11" s="225"/>
+      <c r="AG11" s="226"/>
+      <c r="AJ11" s="227" t="s">
         <v>212</v>
       </c>
-      <c r="AK11" s="197"/>
-      <c r="AL11" s="197"/>
-      <c r="AM11" s="197"/>
-      <c r="AN11" s="197"/>
-      <c r="AO11" s="197"/>
-      <c r="AP11" s="197"/>
-      <c r="AQ11" s="197"/>
-      <c r="AR11" s="197"/>
-      <c r="AS11" s="198"/>
+      <c r="AK11" s="228"/>
+      <c r="AL11" s="228"/>
+      <c r="AM11" s="228"/>
+      <c r="AN11" s="228"/>
+      <c r="AO11" s="228"/>
+      <c r="AP11" s="228"/>
+      <c r="AQ11" s="228"/>
+      <c r="AR11" s="228"/>
+      <c r="AS11" s="229"/>
       <c r="AU11" s="112" t="s">
         <v>213</v>
       </c>
@@ -6116,140 +6579,140 @@
       <c r="K49" s="19"/>
     </row>
     <row r="51" spans="2:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="172" t="s">
+      <c r="B51" s="203" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="173"/>
-      <c r="D51" s="173"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="173"/>
-      <c r="G51" s="173"/>
-      <c r="H51" s="173"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="173"/>
-      <c r="K51" s="173"/>
-      <c r="L51" s="173"/>
-      <c r="M51" s="173"/>
-      <c r="N51" s="173"/>
-      <c r="O51" s="173"/>
-      <c r="P51" s="173"/>
-      <c r="Q51" s="173"/>
-      <c r="R51" s="173"/>
-      <c r="S51" s="173"/>
-      <c r="T51" s="173"/>
-      <c r="U51" s="173"/>
-      <c r="V51" s="173"/>
-      <c r="W51" s="173"/>
-      <c r="X51" s="173"/>
-      <c r="Y51" s="173"/>
-      <c r="Z51" s="173"/>
-      <c r="AA51" s="173"/>
-      <c r="AB51" s="173"/>
-      <c r="AC51" s="173"/>
-      <c r="AD51" s="173"/>
-      <c r="AE51" s="173"/>
-      <c r="AF51" s="173"/>
-      <c r="AG51" s="173"/>
-      <c r="AH51" s="173"/>
-      <c r="AI51" s="173"/>
-      <c r="AJ51" s="173"/>
-      <c r="AK51" s="173"/>
-      <c r="AL51" s="173"/>
-      <c r="AM51" s="173"/>
-      <c r="AN51" s="173"/>
-      <c r="AO51" s="173"/>
-      <c r="AP51" s="173"/>
-      <c r="AQ51" s="173"/>
-      <c r="AR51" s="173"/>
-      <c r="AS51" s="173"/>
-      <c r="AT51" s="173"/>
-      <c r="AU51" s="173"/>
-      <c r="AV51" s="173"/>
-      <c r="AW51" s="173"/>
-      <c r="AX51" s="173"/>
-      <c r="AY51" s="173"/>
-      <c r="AZ51" s="173"/>
-      <c r="BA51" s="173"/>
-      <c r="BB51" s="173"/>
-      <c r="BC51" s="173"/>
-      <c r="BD51" s="173"/>
-      <c r="BE51" s="173"/>
-      <c r="BF51" s="173"/>
-      <c r="BG51" s="173"/>
-      <c r="BH51" s="173"/>
-      <c r="BI51" s="173"/>
-      <c r="BJ51" s="173"/>
-      <c r="BK51" s="173"/>
-      <c r="BL51" s="173"/>
-      <c r="BM51" s="173"/>
-      <c r="BN51" s="174"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="204"/>
+      <c r="K51" s="204"/>
+      <c r="L51" s="204"/>
+      <c r="M51" s="204"/>
+      <c r="N51" s="204"/>
+      <c r="O51" s="204"/>
+      <c r="P51" s="204"/>
+      <c r="Q51" s="204"/>
+      <c r="R51" s="204"/>
+      <c r="S51" s="204"/>
+      <c r="T51" s="204"/>
+      <c r="U51" s="204"/>
+      <c r="V51" s="204"/>
+      <c r="W51" s="204"/>
+      <c r="X51" s="204"/>
+      <c r="Y51" s="204"/>
+      <c r="Z51" s="204"/>
+      <c r="AA51" s="204"/>
+      <c r="AB51" s="204"/>
+      <c r="AC51" s="204"/>
+      <c r="AD51" s="204"/>
+      <c r="AE51" s="204"/>
+      <c r="AF51" s="204"/>
+      <c r="AG51" s="204"/>
+      <c r="AH51" s="204"/>
+      <c r="AI51" s="204"/>
+      <c r="AJ51" s="204"/>
+      <c r="AK51" s="204"/>
+      <c r="AL51" s="204"/>
+      <c r="AM51" s="204"/>
+      <c r="AN51" s="204"/>
+      <c r="AO51" s="204"/>
+      <c r="AP51" s="204"/>
+      <c r="AQ51" s="204"/>
+      <c r="AR51" s="204"/>
+      <c r="AS51" s="204"/>
+      <c r="AT51" s="204"/>
+      <c r="AU51" s="204"/>
+      <c r="AV51" s="204"/>
+      <c r="AW51" s="204"/>
+      <c r="AX51" s="204"/>
+      <c r="AY51" s="204"/>
+      <c r="AZ51" s="204"/>
+      <c r="BA51" s="204"/>
+      <c r="BB51" s="204"/>
+      <c r="BC51" s="204"/>
+      <c r="BD51" s="204"/>
+      <c r="BE51" s="204"/>
+      <c r="BF51" s="204"/>
+      <c r="BG51" s="204"/>
+      <c r="BH51" s="204"/>
+      <c r="BI51" s="204"/>
+      <c r="BJ51" s="204"/>
+      <c r="BK51" s="204"/>
+      <c r="BL51" s="204"/>
+      <c r="BM51" s="204"/>
+      <c r="BN51" s="205"/>
     </row>
     <row r="52" spans="2:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="175"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="176"/>
-      <c r="K52" s="176"/>
-      <c r="L52" s="176"/>
-      <c r="M52" s="176"/>
-      <c r="N52" s="176"/>
-      <c r="O52" s="176"/>
-      <c r="P52" s="176"/>
-      <c r="Q52" s="176"/>
-      <c r="R52" s="176"/>
-      <c r="S52" s="176"/>
-      <c r="T52" s="176"/>
-      <c r="U52" s="176"/>
-      <c r="V52" s="176"/>
-      <c r="W52" s="176"/>
-      <c r="X52" s="176"/>
-      <c r="Y52" s="176"/>
-      <c r="Z52" s="176"/>
-      <c r="AA52" s="176"/>
-      <c r="AB52" s="176"/>
-      <c r="AC52" s="176"/>
-      <c r="AD52" s="176"/>
-      <c r="AE52" s="176"/>
-      <c r="AF52" s="176"/>
-      <c r="AG52" s="176"/>
-      <c r="AH52" s="176"/>
-      <c r="AI52" s="176"/>
-      <c r="AJ52" s="176"/>
-      <c r="AK52" s="176"/>
-      <c r="AL52" s="176"/>
-      <c r="AM52" s="176"/>
-      <c r="AN52" s="176"/>
-      <c r="AO52" s="176"/>
-      <c r="AP52" s="176"/>
-      <c r="AQ52" s="176"/>
-      <c r="AR52" s="176"/>
-      <c r="AS52" s="176"/>
-      <c r="AT52" s="176"/>
-      <c r="AU52" s="176"/>
-      <c r="AV52" s="176"/>
-      <c r="AW52" s="176"/>
-      <c r="AX52" s="176"/>
-      <c r="AY52" s="176"/>
-      <c r="AZ52" s="176"/>
-      <c r="BA52" s="176"/>
-      <c r="BB52" s="176"/>
-      <c r="BC52" s="176"/>
-      <c r="BD52" s="176"/>
-      <c r="BE52" s="176"/>
-      <c r="BF52" s="176"/>
-      <c r="BG52" s="176"/>
-      <c r="BH52" s="176"/>
-      <c r="BI52" s="176"/>
-      <c r="BJ52" s="176"/>
-      <c r="BK52" s="176"/>
-      <c r="BL52" s="176"/>
-      <c r="BM52" s="176"/>
-      <c r="BN52" s="177"/>
+      <c r="B52" s="206"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="207"/>
+      <c r="K52" s="207"/>
+      <c r="L52" s="207"/>
+      <c r="M52" s="207"/>
+      <c r="N52" s="207"/>
+      <c r="O52" s="207"/>
+      <c r="P52" s="207"/>
+      <c r="Q52" s="207"/>
+      <c r="R52" s="207"/>
+      <c r="S52" s="207"/>
+      <c r="T52" s="207"/>
+      <c r="U52" s="207"/>
+      <c r="V52" s="207"/>
+      <c r="W52" s="207"/>
+      <c r="X52" s="207"/>
+      <c r="Y52" s="207"/>
+      <c r="Z52" s="207"/>
+      <c r="AA52" s="207"/>
+      <c r="AB52" s="207"/>
+      <c r="AC52" s="207"/>
+      <c r="AD52" s="207"/>
+      <c r="AE52" s="207"/>
+      <c r="AF52" s="207"/>
+      <c r="AG52" s="207"/>
+      <c r="AH52" s="207"/>
+      <c r="AI52" s="207"/>
+      <c r="AJ52" s="207"/>
+      <c r="AK52" s="207"/>
+      <c r="AL52" s="207"/>
+      <c r="AM52" s="207"/>
+      <c r="AN52" s="207"/>
+      <c r="AO52" s="207"/>
+      <c r="AP52" s="207"/>
+      <c r="AQ52" s="207"/>
+      <c r="AR52" s="207"/>
+      <c r="AS52" s="207"/>
+      <c r="AT52" s="207"/>
+      <c r="AU52" s="207"/>
+      <c r="AV52" s="207"/>
+      <c r="AW52" s="207"/>
+      <c r="AX52" s="207"/>
+      <c r="AY52" s="207"/>
+      <c r="AZ52" s="207"/>
+      <c r="BA52" s="207"/>
+      <c r="BB52" s="207"/>
+      <c r="BC52" s="207"/>
+      <c r="BD52" s="207"/>
+      <c r="BE52" s="207"/>
+      <c r="BF52" s="207"/>
+      <c r="BG52" s="207"/>
+      <c r="BH52" s="207"/>
+      <c r="BI52" s="207"/>
+      <c r="BJ52" s="207"/>
+      <c r="BK52" s="207"/>
+      <c r="BL52" s="207"/>
+      <c r="BM52" s="207"/>
+      <c r="BN52" s="208"/>
     </row>
     <row r="53" spans="2:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
@@ -7009,7 +7472,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8915,6 +9378,326 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED335CE-3BF1-4211-B57F-F16D9285195F}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="275" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="273" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="274" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="275" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="273" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="274" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="282" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="283" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="282" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="283"/>
+      <c r="C5" s="283"/>
+      <c r="D5" s="283"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="284" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="284" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="284" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" s="284" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="272" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="272" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="272" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="278" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="277" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="272" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="272"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="282" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="283" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="283"/>
+      <c r="D16" s="283"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="282" t="s">
+        <v>429</v>
+      </c>
+      <c r="B17" s="283"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="283"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="279" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="280" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="280" t="s">
+        <v>408</v>
+      </c>
+      <c r="D18" s="281" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="276" t="s">
+        <v>428</v>
+      </c>
+      <c r="B24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="276" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="279" t="s">
+        <v>407</v>
+      </c>
+      <c r="B26" s="280" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="280" t="s">
+        <v>408</v>
+      </c>
+      <c r="D26" s="281" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="276" t="s">
+        <v>428</v>
+      </c>
+      <c r="B31" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="276" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="279" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" s="280" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="280" t="s">
+        <v>408</v>
+      </c>
+      <c r="D33" s="281" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="282" t="s">
+        <v>428</v>
+      </c>
+      <c r="B37" s="283" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" s="283"/>
+      <c r="D37" s="283"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="282" t="s">
+        <v>429</v>
+      </c>
+      <c r="B38" s="283"/>
+      <c r="C38" s="283"/>
+      <c r="D38" s="283"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="279" t="s">
+        <v>407</v>
+      </c>
+      <c r="B39" s="280" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="280" t="s">
+        <v>408</v>
+      </c>
+      <c r="D39" s="281" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8950,13 +9733,13 @@
       </c>
     </row>
     <row r="6" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J6" s="199" t="s">
+      <c r="J6" s="230" t="s">
         <v>150</v>
       </c>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="201"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="231"/>
+      <c r="N6" s="232"/>
       <c r="P6" s="64" t="s">
         <v>158</v>
       </c>
@@ -8992,11 +9775,11 @@
       <c r="AR6" s="66"/>
     </row>
     <row r="7" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J7" s="202"/>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="204"/>
+      <c r="J7" s="233"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="235"/>
       <c r="P7" s="38" t="s">
         <v>2</v>
       </c>
@@ -9038,11 +9821,11 @@
       <c r="AR7" s="39"/>
     </row>
     <row r="8" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="202"/>
-      <c r="K8" s="203"/>
-      <c r="L8" s="203"/>
-      <c r="M8" s="203"/>
-      <c r="N8" s="204"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="235"/>
       <c r="P8" s="41" t="s">
         <v>78</v>
       </c>
@@ -9085,11 +9868,11 @@
     </row>
     <row r="9" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I9" s="59"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="204"/>
+      <c r="J9" s="233"/>
+      <c r="K9" s="234"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="235"/>
       <c r="O9" s="61"/>
       <c r="P9" s="44" t="s">
         <v>53</v>
@@ -9135,11 +9918,11 @@
     </row>
     <row r="10" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I10" s="49"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="204"/>
+      <c r="J10" s="233"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="235"/>
       <c r="P10" s="46" t="s">
         <v>80</v>
       </c>
@@ -9174,11 +9957,11 @@
     </row>
     <row r="11" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I11" s="49"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="207"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="238"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
@@ -9212,13 +9995,13 @@
     </row>
     <row r="13" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" s="49"/>
-      <c r="J13" s="208" t="s">
+      <c r="J13" s="239" t="s">
         <v>151</v>
       </c>
-      <c r="K13" s="209"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="210"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="240"/>
+      <c r="N13" s="241"/>
       <c r="P13" s="67" t="s">
         <v>153</v>
       </c>
@@ -9255,11 +10038,11 @@
     </row>
     <row r="14" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I14" s="49"/>
-      <c r="J14" s="211"/>
-      <c r="K14" s="212"/>
-      <c r="L14" s="212"/>
-      <c r="M14" s="212"/>
-      <c r="N14" s="213"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="243"/>
+      <c r="M14" s="243"/>
+      <c r="N14" s="244"/>
       <c r="P14" s="20" t="s">
         <v>2</v>
       </c>
@@ -9302,11 +10085,11 @@
     </row>
     <row r="15" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I15" s="49"/>
-      <c r="J15" s="211"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="212"/>
-      <c r="M15" s="212"/>
-      <c r="N15" s="213"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="243"/>
+      <c r="L15" s="243"/>
+      <c r="M15" s="243"/>
+      <c r="N15" s="244"/>
       <c r="P15" s="24" t="s">
         <v>4</v>
       </c>
@@ -9349,11 +10132,11 @@
     </row>
     <row r="16" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I16" s="49"/>
-      <c r="J16" s="211"/>
-      <c r="K16" s="212"/>
-      <c r="L16" s="212"/>
-      <c r="M16" s="212"/>
-      <c r="N16" s="213"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="243"/>
+      <c r="L16" s="243"/>
+      <c r="M16" s="243"/>
+      <c r="N16" s="244"/>
       <c r="P16" s="27" t="s">
         <v>5</v>
       </c>
@@ -9392,11 +10175,11 @@
     </row>
     <row r="17" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I17" s="49"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="212"/>
-      <c r="L17" s="212"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="213"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="243"/>
+      <c r="L17" s="243"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="244"/>
       <c r="P17" s="27" t="s">
         <v>6</v>
       </c>
@@ -9437,11 +10220,11 @@
     </row>
     <row r="18" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I18" s="61"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="213"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="243"/>
+      <c r="M18" s="243"/>
+      <c r="N18" s="244"/>
       <c r="O18" s="61"/>
       <c r="P18" s="30" t="s">
         <v>81</v>
@@ -9483,11 +10266,11 @@
     </row>
     <row r="19" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I19" s="49"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
-      <c r="N19" s="213"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="243"/>
+      <c r="L19" s="243"/>
+      <c r="M19" s="243"/>
+      <c r="N19" s="244"/>
       <c r="P19" s="15" t="s">
         <v>82</v>
       </c>
@@ -9524,11 +10307,11 @@
     </row>
     <row r="20" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I20" s="49"/>
-      <c r="J20" s="211"/>
-      <c r="K20" s="212"/>
-      <c r="L20" s="212"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="213"/>
+      <c r="J20" s="242"/>
+      <c r="K20" s="243"/>
+      <c r="L20" s="243"/>
+      <c r="M20" s="243"/>
+      <c r="N20" s="244"/>
       <c r="P20" s="30" t="s">
         <v>145</v>
       </c>
@@ -9569,11 +10352,11 @@
     </row>
     <row r="21" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I21" s="49"/>
-      <c r="J21" s="211"/>
-      <c r="K21" s="212"/>
-      <c r="L21" s="212"/>
-      <c r="M21" s="212"/>
-      <c r="N21" s="213"/>
+      <c r="J21" s="242"/>
+      <c r="K21" s="243"/>
+      <c r="L21" s="243"/>
+      <c r="M21" s="243"/>
+      <c r="N21" s="244"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -9610,11 +10393,11 @@
     </row>
     <row r="22" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I22" s="49"/>
-      <c r="J22" s="211"/>
-      <c r="K22" s="212"/>
-      <c r="L22" s="212"/>
-      <c r="M22" s="212"/>
-      <c r="N22" s="213"/>
+      <c r="J22" s="242"/>
+      <c r="K22" s="243"/>
+      <c r="L22" s="243"/>
+      <c r="M22" s="243"/>
+      <c r="N22" s="244"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
@@ -9649,11 +10432,11 @@
     </row>
     <row r="23" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I23" s="49"/>
-      <c r="J23" s="214"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="216"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="247"/>
       <c r="P23" s="53"/>
       <c r="Q23" s="52"/>
       <c r="R23" s="52"/>
@@ -9690,21 +10473,21 @@
       <c r="I24" s="49"/>
     </row>
     <row r="25" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="232" t="s">
+      <c r="C25" s="263" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="233"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="234"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="264"/>
+      <c r="F25" s="264"/>
+      <c r="G25" s="265"/>
       <c r="I25" s="49"/>
-      <c r="J25" s="217" t="s">
+      <c r="J25" s="248" t="s">
         <v>152</v>
       </c>
-      <c r="K25" s="218"/>
-      <c r="L25" s="218"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="219"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="249"/>
+      <c r="M25" s="249"/>
+      <c r="N25" s="250"/>
       <c r="P25" s="70" t="s">
         <v>157</v>
       </c>
@@ -9718,17 +10501,17 @@
       <c r="X25" s="72"/>
     </row>
     <row r="26" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="235"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="237"/>
+      <c r="C26" s="266"/>
+      <c r="D26" s="267"/>
+      <c r="E26" s="267"/>
+      <c r="F26" s="267"/>
+      <c r="G26" s="268"/>
       <c r="I26" s="49"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="221"/>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="222"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="252"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="252"/>
+      <c r="N26" s="253"/>
       <c r="P26" s="20" t="s">
         <v>2</v>
       </c>
@@ -9744,17 +10527,17 @@
       <c r="X26" s="22"/>
     </row>
     <row r="27" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="235"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="237"/>
+      <c r="C27" s="266"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="267"/>
+      <c r="F27" s="267"/>
+      <c r="G27" s="268"/>
       <c r="I27" s="49"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="221"/>
-      <c r="L27" s="221"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="222"/>
+      <c r="J27" s="251"/>
+      <c r="K27" s="252"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="252"/>
+      <c r="N27" s="253"/>
       <c r="P27" s="15" t="s">
         <v>91</v>
       </c>
@@ -9770,17 +10553,17 @@
       <c r="X27" s="16"/>
     </row>
     <row r="28" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="235"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="236"/>
-      <c r="G28" s="237"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="267"/>
+      <c r="F28" s="267"/>
+      <c r="G28" s="268"/>
       <c r="I28" s="49"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="221"/>
-      <c r="L28" s="221"/>
-      <c r="M28" s="221"/>
-      <c r="N28" s="222"/>
+      <c r="J28" s="251"/>
+      <c r="K28" s="252"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="252"/>
+      <c r="N28" s="253"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="10" t="s">
         <v>85</v>
@@ -9794,18 +10577,18 @@
       <c r="X28" s="16"/>
     </row>
     <row r="29" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="235"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="237"/>
+      <c r="C29" s="266"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="267"/>
+      <c r="F29" s="267"/>
+      <c r="G29" s="268"/>
       <c r="H29" s="53"/>
       <c r="I29" s="49"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="221"/>
-      <c r="L29" s="221"/>
-      <c r="M29" s="221"/>
-      <c r="N29" s="222"/>
+      <c r="J29" s="251"/>
+      <c r="K29" s="252"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="252"/>
+      <c r="N29" s="253"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="10" t="s">
         <v>104</v>
@@ -9819,17 +10602,17 @@
       <c r="X29" s="16"/>
     </row>
     <row r="30" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="235"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="237"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="268"/>
       <c r="I30" s="61"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="221"/>
-      <c r="L30" s="221"/>
-      <c r="M30" s="221"/>
-      <c r="N30" s="222"/>
+      <c r="J30" s="251"/>
+      <c r="K30" s="252"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="252"/>
+      <c r="N30" s="253"/>
       <c r="O30" s="61"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="10" t="s">
@@ -9844,17 +10627,17 @@
       <c r="X30" s="16"/>
     </row>
     <row r="31" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="235"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
-      <c r="G31" s="237"/>
+      <c r="C31" s="266"/>
+      <c r="D31" s="267"/>
+      <c r="E31" s="267"/>
+      <c r="F31" s="267"/>
+      <c r="G31" s="268"/>
       <c r="I31" s="49"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="221"/>
-      <c r="L31" s="221"/>
-      <c r="M31" s="221"/>
-      <c r="N31" s="222"/>
+      <c r="J31" s="251"/>
+      <c r="K31" s="252"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="252"/>
+      <c r="N31" s="253"/>
       <c r="P31" s="30" t="s">
         <v>86</v>
       </c>
@@ -9870,17 +10653,17 @@
       <c r="X31" s="32"/>
     </row>
     <row r="32" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="235"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="236"/>
-      <c r="F32" s="236"/>
-      <c r="G32" s="237"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="267"/>
+      <c r="F32" s="267"/>
+      <c r="G32" s="268"/>
       <c r="I32" s="49"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="221"/>
-      <c r="M32" s="221"/>
-      <c r="N32" s="222"/>
+      <c r="J32" s="251"/>
+      <c r="K32" s="252"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="252"/>
+      <c r="N32" s="253"/>
       <c r="P32" s="27" t="s">
         <v>159</v>
       </c>
@@ -9896,17 +10679,17 @@
       <c r="X32" s="29"/>
     </row>
     <row r="33" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="238"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="239"/>
-      <c r="G33" s="240"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="271"/>
       <c r="I33" s="49"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="224"/>
-      <c r="N33" s="225"/>
+      <c r="J33" s="254"/>
+      <c r="K33" s="255"/>
+      <c r="L33" s="255"/>
+      <c r="M33" s="255"/>
+      <c r="N33" s="256"/>
       <c r="P33" s="17" t="s">
         <v>160</v>
       </c>
@@ -9929,13 +10712,13 @@
     </row>
     <row r="36" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I36" s="49"/>
-      <c r="J36" s="226" t="s">
+      <c r="J36" s="257" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="227"/>
-      <c r="L36" s="227"/>
-      <c r="M36" s="227"/>
-      <c r="N36" s="228"/>
+      <c r="K36" s="258"/>
+      <c r="L36" s="258"/>
+      <c r="M36" s="258"/>
+      <c r="N36" s="259"/>
       <c r="P36" s="79" t="s">
         <v>180</v>
       </c>
@@ -9973,11 +10756,11 @@
     </row>
     <row r="37" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I37" s="53"/>
-      <c r="J37" s="229"/>
-      <c r="K37" s="230"/>
-      <c r="L37" s="230"/>
-      <c r="M37" s="230"/>
-      <c r="N37" s="231"/>
+      <c r="J37" s="260"/>
+      <c r="K37" s="261"/>
+      <c r="L37" s="261"/>
+      <c r="M37" s="261"/>
+      <c r="N37" s="262"/>
       <c r="P37" s="20" t="s">
         <v>2</v>
       </c>
@@ -10019,11 +10802,11 @@
       <c r="AR37" s="22"/>
     </row>
     <row r="38" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J38" s="229"/>
-      <c r="K38" s="230"/>
-      <c r="L38" s="230"/>
-      <c r="M38" s="230"/>
-      <c r="N38" s="231"/>
+      <c r="J38" s="260"/>
+      <c r="K38" s="261"/>
+      <c r="L38" s="261"/>
+      <c r="M38" s="261"/>
+      <c r="N38" s="262"/>
       <c r="O38" s="61"/>
       <c r="P38" s="12" t="s">
         <v>106</v>
@@ -10068,11 +10851,11 @@
       <c r="AR38" s="16"/>
     </row>
     <row r="39" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J39" s="229"/>
-      <c r="K39" s="230"/>
-      <c r="L39" s="230"/>
-      <c r="M39" s="230"/>
-      <c r="N39" s="231"/>
+      <c r="J39" s="260"/>
+      <c r="K39" s="261"/>
+      <c r="L39" s="261"/>
+      <c r="M39" s="261"/>
+      <c r="N39" s="262"/>
       <c r="P39" s="15" t="s">
         <v>121</v>
       </c>
@@ -10112,11 +10895,11 @@
       <c r="AR39" s="16"/>
     </row>
     <row r="40" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J40" s="229"/>
-      <c r="K40" s="230"/>
-      <c r="L40" s="230"/>
-      <c r="M40" s="230"/>
-      <c r="N40" s="231"/>
+      <c r="J40" s="260"/>
+      <c r="K40" s="261"/>
+      <c r="L40" s="261"/>
+      <c r="M40" s="261"/>
+      <c r="N40" s="262"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="10" t="s">
         <v>107</v>
@@ -10150,11 +10933,11 @@
       <c r="AR40" s="16"/>
     </row>
     <row r="41" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J41" s="229"/>
-      <c r="K41" s="230"/>
-      <c r="L41" s="230"/>
-      <c r="M41" s="230"/>
-      <c r="N41" s="231"/>
+      <c r="J41" s="260"/>
+      <c r="K41" s="261"/>
+      <c r="L41" s="261"/>
+      <c r="M41" s="261"/>
+      <c r="N41" s="262"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="10" t="s">
         <v>108</v>
@@ -10186,11 +10969,11 @@
       <c r="AR41" s="19"/>
     </row>
     <row r="42" spans="3:44" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J42" s="229"/>
-      <c r="K42" s="230"/>
-      <c r="L42" s="230"/>
-      <c r="M42" s="230"/>
-      <c r="N42" s="231"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="261"/>
+      <c r="L42" s="261"/>
+      <c r="M42" s="261"/>
+      <c r="N42" s="262"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="36" t="s">
@@ -10898,482 +11681,482 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9A70B8-D617-4BF8-8C6A-642AD3348C80}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="241" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="241" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="241" customWidth="1"/>
-    <col min="4" max="4" width="11" style="241" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="241" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="241" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="241" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="241" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="241"/>
+    <col min="1" max="1" width="31.44140625" style="172" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="172" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="172" customWidth="1"/>
+    <col min="4" max="4" width="11" style="172" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="172" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="172" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="172" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" style="172" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="172"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="271"/>
-      <c r="B1" s="271" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="202"/>
+      <c r="B1" s="202" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="271" t="s">
+      <c r="C1" s="202" t="s">
         <v>400</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="202" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="271" t="s">
+      <c r="E1" s="202" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="268" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="250" t="s">
+      <c r="C2" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="250" t="s">
+      <c r="D2" s="181" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="250"/>
-      <c r="G2" s="262" t="s">
+      <c r="E2" s="181"/>
+      <c r="G2" s="193" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="259"/>
-      <c r="B3" s="270" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="190"/>
+      <c r="B3" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="200" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="269" t="s">
+      <c r="D3" s="200" t="s">
         <v>397</v>
       </c>
-      <c r="E3" s="269"/>
-      <c r="G3" s="245" t="s">
+      <c r="E3" s="200"/>
+      <c r="G3" s="176" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="249"/>
-      <c r="B4" s="266" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="180"/>
+      <c r="B4" s="197" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="173" t="s">
         <v>392</v>
       </c>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="173" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="242"/>
-      <c r="G4" s="242" t="s">
+      <c r="E4" s="173"/>
+      <c r="G4" s="173" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="268" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="267" t="s">
+      <c r="B5" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="250" t="s">
+      <c r="C5" s="181" t="s">
         <v>396</v>
       </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="G5" s="258" t="s">
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="G5" s="189" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="249"/>
-      <c r="B6" s="266" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="180"/>
+      <c r="B6" s="197" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="242" t="s">
+      <c r="C6" s="173" t="s">
         <v>396</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="242"/>
-      <c r="G6" s="253" t="s">
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
+      <c r="G6" s="184" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="265" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="196" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="250" t="s">
+      <c r="C7" s="181" t="s">
         <v>395</v>
       </c>
-      <c r="D7" s="250" t="s">
+      <c r="D7" s="181" t="s">
         <v>394</v>
       </c>
-      <c r="E7" s="250"/>
-    </row>
-    <row r="8" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="259"/>
-      <c r="B8" s="263" t="s">
+      <c r="E7" s="181"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="190"/>
+      <c r="B8" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="242" t="s">
+      <c r="C8" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="242" t="s">
+      <c r="D8" s="173" t="s">
         <v>394</v>
       </c>
-      <c r="E8" s="242"/>
-      <c r="G8" s="262" t="s">
+      <c r="E8" s="173"/>
+      <c r="G8" s="193" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="261" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="192" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="251" t="s">
+      <c r="B9" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="258" t="s">
+      <c r="C9" s="189" t="s">
         <v>393</v>
       </c>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="G9" s="258" t="s">
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="G9" s="189" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="259"/>
-      <c r="B10" s="256" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="190"/>
+      <c r="B10" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="255" t="s">
+      <c r="C10" s="186" t="s">
         <v>393</v>
       </c>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
-      <c r="G10" s="255" t="s">
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="G10" s="186" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="259"/>
-      <c r="B11" s="256" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="190"/>
+      <c r="B11" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="255" t="s">
+      <c r="C11" s="186" t="s">
         <v>393</v>
       </c>
-      <c r="D11" s="255"/>
-      <c r="E11" s="255"/>
-      <c r="G11" s="255" t="s">
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="G11" s="186" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="259"/>
-      <c r="B12" s="256" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="190"/>
+      <c r="B12" s="187" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="255" t="s">
+      <c r="C12" s="186" t="s">
         <v>393</v>
       </c>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="G12" s="253" t="s">
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="G12" s="184" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="249"/>
-      <c r="B13" s="248" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="180"/>
+      <c r="B13" s="179" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="258" t="s">
+      <c r="C13" s="189" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-    </row>
-    <row r="14" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="261" t="s">
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="B14" s="251" t="s">
+      <c r="B14" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="258" t="s">
+      <c r="C14" s="189" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="258"/>
-      <c r="E14" s="258"/>
-      <c r="G14" s="262" t="s">
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="G14" s="193" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="259"/>
-      <c r="B15" s="256" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="190"/>
+      <c r="B15" s="187" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="255" t="s">
+      <c r="C15" s="186" t="s">
         <v>392</v>
       </c>
-      <c r="D15" s="255"/>
-      <c r="E15" s="255"/>
-      <c r="G15" s="250" t="s">
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="G15" s="181" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="249"/>
-      <c r="B16" s="248" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="180"/>
+      <c r="B16" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="184" t="s">
         <v>391</v>
       </c>
-      <c r="D16" s="253"/>
-      <c r="E16" s="253"/>
-      <c r="G16" s="242" t="s">
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="G16" s="173" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="261" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="192" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="251" t="s">
+      <c r="B17" s="182" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="258" t="s">
+      <c r="C17" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="D17" s="258" t="s">
+      <c r="D17" s="189" t="s">
         <v>388</v>
       </c>
-      <c r="E17" s="258"/>
-      <c r="G17" s="258" t="s">
+      <c r="E17" s="189"/>
+      <c r="G17" s="189" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="259"/>
-      <c r="B18" s="256" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="190"/>
+      <c r="B18" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="255" t="s">
+      <c r="C18" s="186" t="s">
         <v>389</v>
       </c>
-      <c r="D18" s="255" t="s">
+      <c r="D18" s="186" t="s">
         <v>388</v>
       </c>
-      <c r="E18" s="255"/>
-      <c r="G18" s="255" t="s">
+      <c r="E18" s="186"/>
+      <c r="G18" s="186" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="259"/>
-      <c r="B19" s="256" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="190"/>
+      <c r="B19" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="255" t="s">
+      <c r="C19" s="186" t="s">
         <v>389</v>
       </c>
-      <c r="D19" s="255" t="s">
+      <c r="D19" s="186" t="s">
         <v>388</v>
       </c>
-      <c r="E19" s="255"/>
-      <c r="G19" s="255" t="s">
+      <c r="E19" s="186"/>
+      <c r="G19" s="186" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="249"/>
-      <c r="B20" s="248" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="180"/>
+      <c r="B20" s="179" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="253" t="s">
+      <c r="C20" s="184" t="s">
         <v>389</v>
       </c>
-      <c r="D20" s="253" t="s">
+      <c r="D20" s="184" t="s">
         <v>388</v>
       </c>
-      <c r="E20" s="253"/>
-      <c r="G20" s="253" t="s">
+      <c r="E20" s="184"/>
+      <c r="G20" s="184" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="191" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="251" t="s">
+      <c r="B21" s="182" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="258" t="s">
+      <c r="C21" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-    </row>
-    <row r="22" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="259"/>
-      <c r="B22" s="256" t="s">
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="190"/>
+      <c r="B22" s="187" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="255" t="s">
+      <c r="C22" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="255"/>
-      <c r="E22" s="255"/>
-    </row>
-    <row r="23" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="259"/>
-      <c r="B23" s="256" t="s">
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="190"/>
+      <c r="B23" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="255" t="s">
+      <c r="C23" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="255"/>
-      <c r="E23" s="255"/>
-    </row>
-    <row r="24" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="249"/>
-      <c r="B24" s="248" t="s">
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="180"/>
+      <c r="B24" s="179" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="253" t="s">
+      <c r="C24" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-    </row>
-    <row r="25" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="252" t="s">
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="183" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="251" t="s">
+      <c r="B25" s="182" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="258" t="s">
+      <c r="C25" s="189" t="s">
         <v>387</v>
       </c>
-      <c r="D25" s="258"/>
-      <c r="E25" s="258"/>
-    </row>
-    <row r="26" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="257"/>
-      <c r="B26" s="256" t="s">
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="188"/>
+      <c r="B26" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="255" t="s">
+      <c r="C26" s="186" t="s">
         <v>387</v>
       </c>
-      <c r="D26" s="255"/>
-      <c r="E26" s="255"/>
-    </row>
-    <row r="27" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="257"/>
-      <c r="B27" s="256" t="s">
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="188"/>
+      <c r="B27" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="255" t="s">
+      <c r="C27" s="186" t="s">
         <v>387</v>
       </c>
-      <c r="D27" s="255"/>
-      <c r="E27" s="255"/>
-    </row>
-    <row r="28" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="257"/>
-      <c r="B28" s="256" t="s">
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="188"/>
+      <c r="B28" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="255" t="s">
+      <c r="C28" s="186" t="s">
         <v>386</v>
       </c>
-      <c r="D28" s="255"/>
-      <c r="E28" s="255"/>
-    </row>
-    <row r="29" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="254"/>
-      <c r="B29" s="248" t="s">
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="185"/>
+      <c r="B29" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="253" t="s">
+      <c r="C29" s="184" t="s">
         <v>386</v>
       </c>
-      <c r="D29" s="253"/>
-      <c r="E29" s="253"/>
-    </row>
-    <row r="30" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="252" t="s">
+      <c r="D29" s="184"/>
+      <c r="E29" s="184"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="B30" s="251" t="s">
+      <c r="B30" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="250" t="s">
+      <c r="C30" s="181" t="s">
         <v>385</v>
       </c>
-      <c r="D30" s="250"/>
-      <c r="E30" s="250"/>
-    </row>
-    <row r="31" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="249"/>
-      <c r="B31" s="248" t="s">
+      <c r="D30" s="181"/>
+      <c r="E30" s="181"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="180"/>
+      <c r="B31" s="179" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="242" t="s">
+      <c r="C31" s="173" t="s">
         <v>385</v>
       </c>
-      <c r="D31" s="242"/>
-      <c r="E31" s="242"/>
-    </row>
-    <row r="32" spans="1:7" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="247" t="s">
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="246" t="s">
+      <c r="B32" s="177" t="s">
         <v>177</v>
       </c>
-      <c r="C32" s="245" t="s">
+      <c r="C32" s="176" t="s">
         <v>385</v>
       </c>
-      <c r="D32" s="245"/>
-      <c r="E32" s="245"/>
-    </row>
-    <row r="33" spans="1:5" s="241" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="244"/>
-      <c r="B33" s="243" t="s">
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="175"/>
+      <c r="B33" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="242" t="s">
+      <c r="C33" s="173" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="242"/>
-      <c r="E33" s="242"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E33" xr:uid="{DABBF677-7F14-4972-A931-2D616A28BCA4}"/>
